--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569FD720-A439-4329-BED2-9AD479592ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CA90C9-2DE8-49DE-B173-CDA3AC50A057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -164,13 +164,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -492,105 +492,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -602,7 +602,9 @@
       <c r="F5" s="2">
         <v>7</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -617,9 +619,9 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
@@ -629,7 +631,9 @@
       <c r="F6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>7</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -644,9 +648,9 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -703,17 +707,19 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -734,17 +740,19 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -765,17 +773,19 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -796,17 +806,19 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -827,17 +839,19 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -854,6 +868,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -861,11 +880,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CA90C9-2DE8-49DE-B173-CDA3AC50A057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626441B2-7D95-4149-9CF6-924156A8660E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,13 +164,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -492,105 +492,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -619,9 +619,9 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -648,9 +648,9 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -707,10 +707,10 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -740,10 +740,10 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
@@ -773,10 +773,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
@@ -806,10 +806,10 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
@@ -839,10 +839,10 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
@@ -868,11 +868,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -880,6 +875,11 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626441B2-7D95-4149-9CF6-924156A8660E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04801D5E-3770-40FD-9B13-58F71E572EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>ล</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -164,12 +167,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +484,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -492,105 +498,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -605,7 +611,9 @@
       <c r="G5" s="2">
         <v>7</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>7</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -619,9 +627,9 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
@@ -634,7 +642,9 @@
       <c r="G6" s="2">
         <v>16</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>23</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -648,9 +658,9 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -707,10 +717,10 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -720,18 +730,20 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="H8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A9" s="2">
@@ -740,10 +752,10 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
@@ -753,18 +765,20 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A10" s="2">
@@ -773,10 +787,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
@@ -786,18 +800,20 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A11" s="2">
@@ -806,10 +822,10 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
@@ -819,18 +835,20 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A12" s="2">
@@ -839,10 +857,10 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
@@ -852,22 +870,29 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -875,11 +900,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04801D5E-3770-40FD-9B13-58F71E572EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87179CB-F4FC-4847-85C9-651C5E63B9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -167,15 +167,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +484,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -498,105 +498,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -614,7 +614,9 @@
       <c r="H5" s="2">
         <v>7</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>7</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -627,9 +629,9 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,7 +647,9 @@
       <c r="H6" s="2">
         <v>23</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>30</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -658,9 +662,9 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -717,10 +721,10 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -730,20 +734,22 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
+      <c r="I8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A9" s="2">
@@ -752,10 +758,10 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
@@ -768,17 +774,19 @@
       <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
+      <c r="I9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A10" s="2">
@@ -787,10 +795,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
@@ -803,17 +811,19 @@
       <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A11" s="2">
@@ -822,10 +832,10 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
@@ -838,17 +848,19 @@
       <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A12" s="2">
@@ -857,10 +869,10 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
@@ -873,26 +885,23 @@
       <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="I12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -900,6 +909,11 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
